--- a/Lab_Redis/app/Uploads/data.xlsx
+++ b/Lab_Redis/app/Uploads/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
     <sheet name="Host" sheetId="2" r:id="rId2"/>
     <sheet name="Virtualization" sheetId="3" r:id="rId3"/>
-    <sheet name="Falcon 404 IP assignment" sheetId="4" r:id="rId4"/>
+    <sheet name="Vlan 404 IP assignment" sheetId="4" r:id="rId4"/>
     <sheet name="Sanblaze" sheetId="5" r:id="rId5"/>
     <sheet name="Rockies" sheetId="6" r:id="rId6"/>
     <sheet name="Service" sheetId="7" r:id="rId7"/>
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="A41" authorId="0">
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="693">
   <si>
     <t>Name</t>
   </si>
@@ -615,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -633,7 +633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -654,7 +654,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -675,7 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -696,7 +696,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -729,7 +729,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1809,7 +1809,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1821,7 +1821,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1846,7 +1846,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1857,7 +1857,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2339,7 +2339,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2349,7 +2349,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2369,7 +2369,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2390,7 +2390,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2409,7 +2409,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2423,7 +2423,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2433,7 +2433,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3135,19 +3135,37 @@
   <si>
     <t>10.109.110.92</t>
   </si>
+  <si>
+    <t>10.245.93.48</t>
+  </si>
+  <si>
+    <t>10.245.93.49</t>
+  </si>
+  <si>
+    <t>10.245.93.50</t>
+  </si>
+  <si>
+    <t>10.245.93.51</t>
+  </si>
+  <si>
+    <t>10.245.93.52</t>
+  </si>
+  <si>
+    <t>10.245.93.53</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3162,21 +3180,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3191,7 +3209,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3225,7 +3243,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3243,7 +3261,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3269,7 +3287,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3300,7 +3318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3308,7 +3326,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3847,10 +3865,10 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4015,9 +4033,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4047,7 +4065,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4121,7 +4139,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4156,7 +4173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4332,21 +4348,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5346,21 +5362,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.25" customWidth="1"/>
     <col min="7" max="7" width="74" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5410,7 +5426,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5">
+    <row r="3" spans="1:7" ht="378">
       <c r="A3" s="61" t="s">
         <v>463</v>
       </c>
@@ -5433,7 +5449,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="210">
+    <row r="4" spans="1:7" ht="189">
       <c r="A4" s="61" t="s">
         <v>464</v>
       </c>
@@ -5467,17 +5483,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="55.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -5491,7 +5507,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="69" t="s">
         <v>487</v>
       </c>
@@ -5502,7 +5518,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75">
+    <row r="3" spans="1:3" ht="24">
       <c r="A3" s="71" t="s">
         <v>490</v>
       </c>
@@ -5656,7 +5672,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="153">
+    <row r="17" spans="1:3" ht="140.25">
       <c r="A17" s="75" t="s">
         <v>515</v>
       </c>
@@ -5806,7 +5822,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="242.25">
+    <row r="31" spans="1:3" ht="229.5">
       <c r="A31" s="75" t="s">
         <v>545</v>
       </c>
@@ -5839,7 +5855,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="36.75">
+    <row r="34" spans="1:3" ht="36">
       <c r="A34" s="75" t="s">
         <v>551</v>
       </c>
@@ -6081,7 +6097,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="14.25">
       <c r="A56" s="84" t="s">
         <v>588</v>
       </c>
@@ -6092,14 +6108,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="14.25">
       <c r="A57" s="84" t="s">
         <v>589</v>
       </c>
       <c r="B57" s="93"/>
       <c r="C57" s="93"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="14.25">
       <c r="A58" s="84" t="s">
         <v>590</v>
       </c>
@@ -6110,7 +6126,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="14.25">
       <c r="A59" s="84" t="s">
         <v>591</v>
       </c>
@@ -6121,14 +6137,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="14.25">
       <c r="A60" s="84" t="s">
         <v>592</v>
       </c>
       <c r="B60" s="97"/>
       <c r="C60" s="97"/>
     </row>
-    <row r="61" spans="1:3" ht="24.75">
+    <row r="61" spans="1:3" ht="14.25">
       <c r="A61" s="84" t="s">
         <v>593</v>
       </c>
@@ -6261,23 +6277,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30">
@@ -6543,23 +6561,24 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6588,7 +6607,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="121" t="s">
         <v>119</v>
       </c>
@@ -6602,7 +6621,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="40.5">
       <c r="A4" s="121" t="s">
         <v>667</v>
       </c>
@@ -6616,7 +6635,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="121" t="s">
         <v>668</v>
       </c>
@@ -6631,24 +6650,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H98"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7145,7 +7166,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="48" t="s">
         <v>380</v>
       </c>
@@ -7167,7 +7188,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="48" t="s">
         <v>380</v>
       </c>
@@ -7189,7 +7210,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="48" t="s">
         <v>380</v>
       </c>
@@ -7211,7 +7232,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="48" t="s">
         <v>380</v>
       </c>
@@ -7233,7 +7254,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="48" t="s">
         <v>380</v>
       </c>
@@ -7255,7 +7276,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="48" t="s">
         <v>380</v>
       </c>
@@ -7277,7 +7298,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="48" t="s">
         <v>380</v>
       </c>
@@ -7301,7 +7322,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="48" t="s">
         <v>380</v>
       </c>
@@ -7369,7 +7390,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" s="48" t="s">
         <v>380</v>
       </c>
@@ -7391,7 +7412,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="48" t="s">
         <v>380</v>
       </c>
@@ -7413,7 +7434,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="48" t="s">
         <v>380</v>
       </c>
@@ -7437,7 +7458,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="15">
       <c r="A36" s="48" t="s">
         <v>380</v>
       </c>
@@ -7459,7 +7480,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="48" t="s">
         <v>380</v>
       </c>
@@ -7481,7 +7502,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="48" t="s">
         <v>380</v>
       </c>
@@ -7503,7 +7524,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="48" t="s">
         <v>429</v>
       </c>
@@ -7525,7 +7546,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="48" t="s">
         <v>380</v>
       </c>
@@ -7547,7 +7568,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="48" t="s">
         <v>380</v>
       </c>
@@ -7569,7 +7590,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="48" t="s">
         <v>380</v>
       </c>
@@ -7591,7 +7612,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="48" t="s">
         <v>380</v>
       </c>
@@ -7613,7 +7634,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="48" t="s">
         <v>380</v>
       </c>
@@ -7635,7 +7656,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="48" t="s">
         <v>380</v>
       </c>
@@ -8746,6 +8767,126 @@
         <v>17</v>
       </c>
       <c r="H98" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>633</v>
+      </c>
+      <c r="B99" t="s">
+        <v>629</v>
+      </c>
+      <c r="C99" t="s">
+        <v>687</v>
+      </c>
+      <c r="D99" t="s">
+        <v>631</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>633</v>
+      </c>
+      <c r="B100" t="s">
+        <v>629</v>
+      </c>
+      <c r="C100" t="s">
+        <v>688</v>
+      </c>
+      <c r="D100" t="s">
+        <v>631</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>633</v>
+      </c>
+      <c r="B101" t="s">
+        <v>629</v>
+      </c>
+      <c r="C101" t="s">
+        <v>689</v>
+      </c>
+      <c r="D101" t="s">
+        <v>631</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>633</v>
+      </c>
+      <c r="B102" t="s">
+        <v>629</v>
+      </c>
+      <c r="C102" t="s">
+        <v>690</v>
+      </c>
+      <c r="D102" t="s">
+        <v>631</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>633</v>
+      </c>
+      <c r="B103" t="s">
+        <v>629</v>
+      </c>
+      <c r="C103" t="s">
+        <v>691</v>
+      </c>
+      <c r="D103" t="s">
+        <v>631</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>633</v>
+      </c>
+      <c r="B104" t="s">
+        <v>629</v>
+      </c>
+      <c r="C104" t="s">
+        <v>692</v>
+      </c>
+      <c r="D104" t="s">
+        <v>631</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="114" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8756,20 +8897,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
@@ -9165,21 +9306,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9205,7 +9346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="54">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9228,7 +9369,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="54">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9251,7 +9392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -9455,22 +9596,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
@@ -9634,8 +9775,8 @@
   <conditionalFormatting sqref="E1:F1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
@@ -9669,14 +9810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -9797,19 +9938,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9826,7 +9967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="31" t="s">
         <v>676</v>
       </c>
@@ -9840,7 +9981,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105">
+    <row r="3" spans="1:4" ht="94.5">
       <c r="A3" s="31" t="s">
         <v>238</v>
       </c>
@@ -9866,7 +10007,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="54">
       <c r="A5" s="31" t="s">
         <v>243</v>
       </c>
@@ -9880,7 +10021,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="31" t="s">
         <v>246</v>
       </c>
@@ -9963,19 +10104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="134.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10097,22 +10238,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="42" t="s">
         <v>182</v>
       </c>
@@ -10126,7 +10267,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="42" t="s">
         <v>32</v>
       </c>
@@ -10140,7 +10281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="42" t="s">
         <v>71</v>
       </c>
@@ -10154,7 +10295,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="42" t="s">
         <v>75</v>
       </c>
@@ -10168,7 +10309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="42" t="s">
         <v>24</v>
       </c>
@@ -10180,7 +10321,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="42" t="s">
         <v>18</v>
       </c>
@@ -10192,7 +10333,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="42" t="s">
         <v>23</v>
       </c>
@@ -10204,7 +10345,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="42" t="s">
         <v>79</v>
       </c>
@@ -10218,7 +10359,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="42" t="s">
         <v>36</v>
       </c>
@@ -10230,7 +10371,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="42" t="s">
         <v>42</v>
       </c>
@@ -10242,7 +10383,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="42" t="s">
         <v>47</v>
       </c>
@@ -10254,7 +10395,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
@@ -10266,7 +10407,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
@@ -10280,7 +10421,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="42" t="s">
         <v>61</v>
       </c>
@@ -10292,7 +10433,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="42" t="s">
         <v>65</v>
       </c>
@@ -10304,7 +10445,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="42" t="s">
         <v>70</v>
       </c>

--- a/Lab_Redis/app/Uploads/data.xlsx
+++ b/Lab_Redis/app/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="AD User" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Array!$A$1:$A$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Array!$A$1:$A$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Return List'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>10.109.226.176</t>
   </si>
   <si>
-    <t>Waddill, David</t>
-  </si>
-  <si>
     <t>Dai, David</t>
   </si>
   <si>
@@ -79,24 +76,12 @@
     <t>10.109.226.174</t>
   </si>
   <si>
-    <t>Lu, Patrick</t>
-  </si>
-  <si>
     <t>Yang, Reid</t>
   </si>
   <si>
     <t>OB-D1096</t>
   </si>
   <si>
-    <t>10.109.20.156</t>
-  </si>
-  <si>
-    <t>10.109.20.157</t>
-  </si>
-  <si>
-    <t>10.109.20.158</t>
-  </si>
-  <si>
     <t>Yan, Jessie</t>
   </si>
   <si>
@@ -106,138 +91,45 @@
     <t>OB-D1099</t>
   </si>
   <si>
-    <t>10.109.20.171</t>
-  </si>
-  <si>
-    <t>10.109.20.172</t>
-  </si>
-  <si>
-    <t>10.109.20.173</t>
-  </si>
-  <si>
     <t>OB-D1102</t>
   </si>
   <si>
-    <t>10.109.20.186</t>
-  </si>
-  <si>
-    <t>10.109.20.187</t>
-  </si>
-  <si>
-    <t>10.109.20.188</t>
-  </si>
-  <si>
     <t>OB-D1147</t>
   </si>
   <si>
-    <t>10.109.22.56</t>
-  </si>
-  <si>
-    <t>10.109.22.57</t>
-  </si>
-  <si>
-    <t>10.109.22.58</t>
-  </si>
-  <si>
     <t>OB-D1150</t>
   </si>
   <si>
-    <t>10.109.22.51</t>
-  </si>
-  <si>
-    <t>10.109.22.52</t>
-  </si>
-  <si>
-    <t>10.109.22.53</t>
-  </si>
-  <si>
     <t>Responsible Manager</t>
   </si>
   <si>
-    <t>Zeng, Ke</t>
-  </si>
-  <si>
     <t>OB-D1151</t>
   </si>
   <si>
-    <t>10.109.22.46</t>
-  </si>
-  <si>
-    <t>10.109.22.47</t>
-  </si>
-  <si>
-    <t>10.109.22.48</t>
-  </si>
-  <si>
     <t>Yuan, Jia</t>
   </si>
   <si>
     <t>OB-D1166</t>
   </si>
   <si>
-    <t>10.109.22.146</t>
-  </si>
-  <si>
-    <t>10.109.22.147</t>
-  </si>
-  <si>
-    <t>10.109.22.148</t>
-  </si>
-  <si>
     <t>Lai, Zhencai</t>
   </si>
   <si>
     <t>OB-D1167</t>
   </si>
   <si>
-    <t>10.109.22.141</t>
-  </si>
-  <si>
-    <t>10.109.22.142</t>
-  </si>
-  <si>
-    <t>10.109.22.143</t>
-  </si>
-  <si>
     <t>Zhao, Jingrong</t>
   </si>
   <si>
     <t>OB-D1168</t>
   </si>
   <si>
-    <t>10.109.22.151</t>
-  </si>
-  <si>
-    <t>10.109.22.152</t>
-  </si>
-  <si>
-    <t>10.109.22.153</t>
-  </si>
-  <si>
     <t>OB-D1172</t>
   </si>
   <si>
-    <t>10.109.22.231</t>
-  </si>
-  <si>
-    <t>10.109.22.232</t>
-  </si>
-  <si>
-    <t>10.109.22.233</t>
-  </si>
-  <si>
     <t>OB-D1215</t>
   </si>
   <si>
-    <t>10.109.22.156</t>
-  </si>
-  <si>
-    <t>10.109.22.157</t>
-  </si>
-  <si>
-    <t>10.109.22.158</t>
-  </si>
-  <si>
     <t>Liu, Bonn</t>
   </si>
   <si>
@@ -247,91 +139,13 @@
     <t>OB-D1312</t>
   </si>
   <si>
-    <t>10.109.10.184</t>
-  </si>
-  <si>
-    <t>10.109.10.185</t>
-  </si>
-  <si>
-    <t>10.109.10.186</t>
-  </si>
-  <si>
     <t>OB-D1313</t>
   </si>
   <si>
-    <t>10.109.10.240</t>
-  </si>
-  <si>
-    <t>10.109.10.241</t>
-  </si>
-  <si>
-    <t>10.109.10.242</t>
-  </si>
-  <si>
     <t>OB-D1314</t>
   </si>
   <si>
-    <t>10.109.10.245</t>
-  </si>
-  <si>
-    <t>10.109.10.246</t>
-  </si>
-  <si>
-    <t>10.109.10.247</t>
-  </si>
-  <si>
-    <t>VP-D1038</t>
-  </si>
-  <si>
-    <t>10.109.109.100</t>
-  </si>
-  <si>
-    <t>10.109.109.101</t>
-  </si>
-  <si>
-    <t>10.109.109.102</t>
-  </si>
-  <si>
-    <t>Grosner, George</t>
-  </si>
-  <si>
-    <t>VP-D1057</t>
-  </si>
-  <si>
-    <t>10.109.110.19</t>
-  </si>
-  <si>
-    <t>10.109.110.20</t>
-  </si>
-  <si>
-    <t>10.109.110.21</t>
-  </si>
-  <si>
-    <t>VP-D1063</t>
-  </si>
-  <si>
-    <t>10.109.110.73</t>
-  </si>
-  <si>
-    <t>10.109.110.74</t>
-  </si>
-  <si>
-    <t>10.109.110.75</t>
-  </si>
-  <si>
-    <t>Davalos, Raul</t>
-  </si>
-  <si>
     <t>VX-D1207</t>
-  </si>
-  <si>
-    <t>10.111.81.83</t>
-  </si>
-  <si>
-    <t>10.111.81.84</t>
-  </si>
-  <si>
-    <t>10.111.81.85</t>
   </si>
   <si>
     <t>Physical</t>
@@ -1052,208 +866,31 @@
     <t>VNX2 5401</t>
   </si>
   <si>
-    <t>VNX2 5700</t>
-  </si>
-  <si>
-    <t>Unity 600</t>
-  </si>
-  <si>
-    <t>10.109.20.76</t>
-  </si>
-  <si>
-    <t>10.109.20.77</t>
-  </si>
-  <si>
-    <t>10.109.20.78</t>
-  </si>
-  <si>
     <t>Dai, Cherry</t>
   </si>
   <si>
-    <t>OB-D1101</t>
-  </si>
-  <si>
-    <t>10.109.20.181</t>
-  </si>
-  <si>
-    <t>10.109.20.182</t>
-  </si>
-  <si>
-    <t>10.109.20.183</t>
-  </si>
-  <si>
-    <t>Unity 400</t>
-  </si>
-  <si>
     <t>Tang, Bo</t>
   </si>
   <si>
     <t>OB-D1104</t>
   </si>
   <si>
-    <t>10.109.20.196</t>
-  </si>
-  <si>
-    <t>10.109.20.197</t>
-  </si>
-  <si>
-    <t>10.109.20.198</t>
-  </si>
-  <si>
     <t>OB-D1108</t>
   </si>
   <si>
-    <t>Unity 300</t>
-  </si>
-  <si>
-    <t>10.109.20.216</t>
-  </si>
-  <si>
-    <t>10.109.20.217</t>
-  </si>
-  <si>
-    <t>10.109.20.218</t>
-  </si>
-  <si>
     <t>Zhang, Jennifer</t>
   </si>
   <si>
     <t>OB-D1113</t>
   </si>
   <si>
-    <t>10.109.20.241</t>
-  </si>
-  <si>
-    <t>10.109.20.242</t>
-  </si>
-  <si>
-    <t>10.109.20.243</t>
-  </si>
-  <si>
-    <t>Unity 500</t>
-  </si>
-  <si>
-    <t>OB-D1182</t>
-  </si>
-  <si>
-    <t>10.109.21.171</t>
-  </si>
-  <si>
-    <t>10.109.21.172</t>
-  </si>
-  <si>
-    <t>10.109.21.173</t>
-  </si>
-  <si>
     <t>OB-D1185</t>
   </si>
   <si>
-    <t>10.109.21.186</t>
-  </si>
-  <si>
-    <t>10.109.21.187</t>
-  </si>
-  <si>
-    <t>10.109.21.188</t>
-  </si>
-  <si>
-    <t>OB-D1234</t>
-  </si>
-  <si>
-    <t>10.109.21.236</t>
-  </si>
-  <si>
-    <t>10.109.21.237</t>
-  </si>
-  <si>
-    <t>10.109.21.238</t>
-  </si>
-  <si>
-    <t>OB-D1235</t>
-  </si>
-  <si>
-    <t>10.109.21.231</t>
-  </si>
-  <si>
-    <t>10.109.21.232</t>
-  </si>
-  <si>
-    <t>10.109.21.233</t>
-  </si>
-  <si>
-    <t>OB-D1236</t>
-  </si>
-  <si>
-    <t>10.109.21.226</t>
-  </si>
-  <si>
-    <t>10.109.21.227</t>
-  </si>
-  <si>
-    <t>10.109.21.228</t>
-  </si>
-  <si>
-    <t>OB-D1242</t>
-  </si>
-  <si>
-    <t>10.109.23.6</t>
-  </si>
-  <si>
-    <t>10.109.23.7</t>
-  </si>
-  <si>
-    <t>10.109.23.8</t>
-  </si>
-  <si>
     <t>OB-D1245</t>
   </si>
   <si>
-    <t>10.109.22.246</t>
-  </si>
-  <si>
-    <t>10.109.22.247</t>
-  </si>
-  <si>
-    <t>10.109.22.248</t>
-  </si>
-  <si>
     <t>OB-D1260</t>
-  </si>
-  <si>
-    <t>10.109.23.76</t>
-  </si>
-  <si>
-    <t>10.109.23.77</t>
-  </si>
-  <si>
-    <t>10.109.23.78</t>
-  </si>
-  <si>
-    <t>OB-D1270</t>
-  </si>
-  <si>
-    <t>10.109.23.46</t>
-  </si>
-  <si>
-    <t>10.109.23.47</t>
-  </si>
-  <si>
-    <t>10.109.23.48</t>
-  </si>
-  <si>
-    <t>VP-D1022</t>
-  </si>
-  <si>
-    <t>Virtual_VNX_OEM</t>
-  </si>
-  <si>
-    <t>10.109.108.208</t>
-  </si>
-  <si>
-    <t>10.109.108.209</t>
-  </si>
-  <si>
-    <t>10.109.108.210</t>
   </si>
   <si>
     <t>Version</t>
@@ -1880,27 +1517,6 @@
 root/Password123!
 domain user:
 luser1…luser100/passwd1..passwd100</t>
-  </si>
-  <si>
-    <t>VP-D1056</t>
-  </si>
-  <si>
-    <t>10.109.110.10</t>
-  </si>
-  <si>
-    <t>10.109.110.11</t>
-  </si>
-  <si>
-    <t>10.109.110.12</t>
-  </si>
-  <si>
-    <t>VP-D1065</t>
-  </si>
-  <si>
-    <t>10.109.110.91</t>
-  </si>
-  <si>
-    <t>10.109.110.92</t>
   </si>
   <si>
     <t>10.245.93.48</t>
@@ -2346,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,7 +2181,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2883,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2904,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2922,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2930,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2942,950 +2557,43 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="90" customFormat="1">
-      <c r="A5" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="90" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="90" customFormat="1">
-      <c r="A6" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="90" customFormat="1">
-      <c r="A9" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="90" customFormat="1">
-      <c r="A10" s="90" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="90" customFormat="1">
-      <c r="A11" s="90" t="s">
-        <v>322</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="90" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="90" customFormat="1">
-      <c r="A12" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>329</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="90" t="s">
-        <v>327</v>
-      </c>
-      <c r="H12" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>317</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="90" customFormat="1">
-      <c r="A14" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="90" customFormat="1">
-      <c r="A16" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="90" customFormat="1">
-      <c r="A18" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D20" t="s">
-        <v>335</v>
-      </c>
-      <c r="E20" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="90" customFormat="1">
-      <c r="A21" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="90" t="s">
-        <v>339</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>340</v>
-      </c>
-      <c r="F21" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="90" customFormat="1">
-      <c r="A22" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>341</v>
-      </c>
-      <c r="B23" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" t="s">
-        <v>342</v>
-      </c>
-      <c r="D23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" t="s">
-        <v>344</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>311</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" t="s">
-        <v>316</v>
-      </c>
-      <c r="C24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" t="s">
-        <v>347</v>
-      </c>
-      <c r="E24" t="s">
-        <v>348</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>317</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" t="s">
-        <v>351</v>
-      </c>
-      <c r="E25" t="s">
-        <v>352</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>353</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" t="s">
-        <v>355</v>
-      </c>
-      <c r="E26" t="s">
-        <v>356</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>317</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="90" customFormat="1">
-      <c r="A27" s="90" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="90" t="s">
-        <v>358</v>
-      </c>
-      <c r="D27" s="90" t="s">
-        <v>359</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>360</v>
-      </c>
-      <c r="F27" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="H27" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="90" customFormat="1">
-      <c r="A28" s="90" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" s="90" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="D28" s="90" t="s">
-        <v>363</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="F28" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="H28" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>365</v>
-      </c>
-      <c r="B29" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" t="s">
-        <v>366</v>
-      </c>
-      <c r="D29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>311</v>
-      </c>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>323</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>316</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>369</v>
-      </c>
-      <c r="B33" t="s">
-        <v>370</v>
-      </c>
-      <c r="C33" t="s">
-        <v>371</v>
-      </c>
-      <c r="D33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E33" t="s">
-        <v>373</v>
-      </c>
-      <c r="F33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>551</v>
-      </c>
-      <c r="B35" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" t="s">
-        <v>552</v>
-      </c>
-      <c r="D35" t="s">
-        <v>553</v>
-      </c>
-      <c r="E35" t="s">
-        <v>554</v>
-      </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>555</v>
-      </c>
-      <c r="B38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C38" t="s">
-        <v>556</v>
-      </c>
-      <c r="D38" t="s">
-        <v>557</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A32"/>
+  <autoFilter ref="A1:A3"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="systemDetails::storagesystem=APM00153018781" tooltip="JF-D1012" display="https://hubv1.corp.emc.com/services/equipment_management - systemDetails::storagesystem=APM00153018781"/>
@@ -3916,94 +2624,94 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>458</v>
+        <v>337</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>459</v>
+        <v>338</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>460</v>
+        <v>339</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>461</v>
+        <v>340</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>462</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="149.25" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>457</v>
+        <v>336</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>465</v>
+        <v>344</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>466</v>
+        <v>345</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>467</v>
+        <v>346</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>470</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="378">
       <c r="A3" s="61" t="s">
-        <v>463</v>
+        <v>342</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>471</v>
+        <v>350</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>474</v>
+        <v>353</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>476</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="189">
       <c r="A4" s="61" t="s">
-        <v>464</v>
+        <v>343</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>478</v>
+        <v>357</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>481</v>
+        <v>360</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>482</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4020,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
@@ -4035,260 +2743,260 @@
         <v>5</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>488</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="73" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="20" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="75" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="20" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="73" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="20" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="20" t="s">
-        <v>494</v>
+        <v>373</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="73" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="73" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>361</v>
+        <v>252</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>495</v>
+        <v>374</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="73" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4316,13 +3024,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="86" t="s">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>485</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4330,55 +3038,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27">
       <c r="A3" s="86" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>543</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5">
       <c r="A4" s="86" t="s">
-        <v>538</v>
+        <v>417</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>542</v>
+        <v>421</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>545</v>
+        <v>424</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>542</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="86" t="s">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>541</v>
+        <v>420</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>544</v>
+        <v>423</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>546</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4406,2220 +3114,2220 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="46" t="s">
-        <v>374</v>
+        <v>253</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>376</v>
+        <v>255</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>377</v>
+        <v>256</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>378</v>
+        <v>257</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>529</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>382</v>
+        <v>261</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>384</v>
+        <v>263</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="46" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>391</v>
+        <v>270</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="46" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>392</v>
+        <v>271</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="46" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="46" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="46" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="46" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>396</v>
+        <v>275</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="46" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="46" t="s">
-        <v>399</v>
+        <v>278</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="46" t="s">
-        <v>399</v>
+        <v>278</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="18" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="46" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="46" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="46" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="46" t="s">
-        <v>408</v>
+        <v>287</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>409</v>
+        <v>288</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="A23" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>410</v>
+        <v>289</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="46"/>
       <c r="H23" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15">
       <c r="A24" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="46"/>
       <c r="H24" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15">
       <c r="A25" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>413</v>
+        <v>292</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="46"/>
       <c r="H25" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15">
       <c r="A26" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="46"/>
       <c r="H26" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
       <c r="A27" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="46"/>
       <c r="H27" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15">
       <c r="A28" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>416</v>
+        <v>295</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="46"/>
       <c r="H28" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15">
       <c r="A29" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>418</v>
+        <v>297</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15">
       <c r="A30" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>418</v>
+        <v>297</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F31" s="50"/>
       <c r="G31" s="20"/>
       <c r="H31" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
-        <v>399</v>
+        <v>278</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="20"/>
       <c r="H32" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15">
       <c r="A33" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="46"/>
       <c r="H33" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15">
       <c r="A34" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="46"/>
       <c r="H34" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15">
       <c r="A35" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>423</v>
+        <v>302</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="46" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15">
       <c r="A36" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="46"/>
       <c r="H36" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15">
       <c r="A37" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="46"/>
       <c r="H37" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15">
       <c r="A38" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>427</v>
+        <v>306</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="46"/>
       <c r="H38" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15">
       <c r="A39" s="48" t="s">
-        <v>429</v>
+        <v>308</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>430</v>
+        <v>309</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="46"/>
       <c r="H39" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15">
       <c r="A40" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="46"/>
       <c r="H40" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15">
       <c r="A41" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="46"/>
       <c r="H41" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15">
       <c r="A42" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>432</v>
+        <v>311</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="46"/>
       <c r="H42" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15">
       <c r="A43" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="46"/>
       <c r="H43" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15">
       <c r="A44" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>432</v>
+        <v>311</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="46"/>
       <c r="H44" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15">
       <c r="A45" s="48" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>433</v>
+        <v>312</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="46"/>
       <c r="H45" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>436</v>
+        <v>315</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>438</v>
+        <v>317</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>439</v>
+        <v>318</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="18" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="18" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="18" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>442</v>
+        <v>321</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="18" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>443</v>
+        <v>322</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="18" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="18" t="s">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="18" t="s">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>446</v>
+        <v>325</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="18" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="18" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>449</v>
+        <v>328</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="79" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C62" t="s">
-        <v>501</v>
+        <v>380</v>
       </c>
       <c r="D62" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H62" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
-        <v>503</v>
+        <v>382</v>
       </c>
       <c r="D63" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C64" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C65" t="s">
-        <v>506</v>
+        <v>385</v>
       </c>
       <c r="D65" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H65" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C66" t="s">
-        <v>507</v>
+        <v>386</v>
       </c>
       <c r="D66" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H66" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B67" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C67" t="s">
-        <v>439</v>
+        <v>318</v>
       </c>
       <c r="D67" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="H67" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>508</v>
+        <v>387</v>
       </c>
       <c r="D69" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="H69" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>509</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C70" t="s">
-        <v>510</v>
+        <v>389</v>
       </c>
       <c r="D70" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>509</v>
+        <v>388</v>
       </c>
       <c r="B71" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C71" t="s">
-        <v>511</v>
+        <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B72" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C72" t="s">
-        <v>512</v>
+        <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C73" t="s">
-        <v>513</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B74" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C74" t="s">
-        <v>514</v>
+        <v>393</v>
       </c>
       <c r="D74" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H74" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
-        <v>515</v>
+        <v>394</v>
       </c>
       <c r="D75" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H75" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B77" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s">
-        <v>516</v>
+        <v>395</v>
       </c>
       <c r="D78" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H78" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B79" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C79" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="D79" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E79" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="H79" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B80" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B82" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C82" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="D82" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H82" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B83" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C83" t="s">
-        <v>519</v>
+        <v>398</v>
       </c>
       <c r="D83" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H83" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C84" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
       <c r="D84" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H84" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B85" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C85" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="D85" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H85" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B86" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="D86" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H86" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H87" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B88" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H88" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B89" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C89" t="s">
-        <v>523</v>
+        <v>402</v>
       </c>
       <c r="D89" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H89" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="H90" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="D91" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H91" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B93" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H93" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C94" t="s">
-        <v>524</v>
+        <v>403</v>
       </c>
       <c r="D94" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H94" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B95" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C95" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H95" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B96" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C96" t="s">
-        <v>526</v>
+        <v>405</v>
       </c>
       <c r="D96" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H96" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B97" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="D97" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H97" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C98" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H98" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B99" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s">
-        <v>558</v>
+        <v>430</v>
       </c>
       <c r="D99" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H99" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B100" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C100" t="s">
-        <v>559</v>
+        <v>431</v>
       </c>
       <c r="D100" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H100" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C101" t="s">
-        <v>560</v>
+        <v>432</v>
       </c>
       <c r="D101" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H101" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B102" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C102" t="s">
-        <v>561</v>
+        <v>433</v>
       </c>
       <c r="D102" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H102" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B103" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>562</v>
+        <v>434</v>
       </c>
       <c r="D103" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H103" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="B104" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C104" t="s">
-        <v>563</v>
+        <v>435</v>
       </c>
       <c r="D104" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H104" s="79" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -6650,374 +5358,374 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>451</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>455</v>
+        <v>334</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>455</v>
+        <v>334</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>455</v>
+        <v>334</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>455</v>
+        <v>334</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>456</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>456</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -7057,25 +5765,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54">
@@ -7083,22 +5791,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>498</v>
+        <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54">
@@ -7106,22 +5814,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
@@ -7129,196 +5837,196 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -7348,158 +6056,158 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="18" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +6264,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
@@ -7588,7 +6296,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="D2" s="27">
         <v>3</v>
@@ -7600,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -7611,10 +6319,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="D3" s="27">
         <v>3</v>
@@ -7626,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -7637,10 +6345,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="D4" s="27">
         <v>3</v>
@@ -7652,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7687,111 +6395,111 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="31" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>548</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="94.5">
       <c r="A3" s="31" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>549</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="54">
       <c r="A5" s="31" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>543</v>
+        <v>422</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>550</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="31" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="31" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="31" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -7799,7 +6507,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="31" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -7807,25 +6515,25 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="31" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>546</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="36" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="D12" s="38"/>
     </row>
@@ -7854,107 +6562,107 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7987,206 +6695,206 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="42" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="42" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>534</v>
+        <v>413</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="42" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="42" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>535</v>
+        <v>414</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="42" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="42" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="42" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="42" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="42" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="42" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="42" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="42" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>532</v>
+        <v>411</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="42" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="42" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="42" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="42" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="42" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Lab_Redis/app/Uploads/data.xlsx
+++ b/Lab_Redis/app/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="AD User" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Array!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Array!$A$1:$A$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Return List'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="564">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>10.109.226.176</t>
   </si>
   <si>
+    <t>Waddill, David</t>
+  </si>
+  <si>
     <t>Dai, David</t>
   </si>
   <si>
@@ -76,12 +79,24 @@
     <t>10.109.226.174</t>
   </si>
   <si>
+    <t>Lu, Patrick</t>
+  </si>
+  <si>
     <t>Yang, Reid</t>
   </si>
   <si>
     <t>OB-D1096</t>
   </si>
   <si>
+    <t>10.109.20.156</t>
+  </si>
+  <si>
+    <t>10.109.20.157</t>
+  </si>
+  <si>
+    <t>10.109.20.158</t>
+  </si>
+  <si>
     <t>Yan, Jessie</t>
   </si>
   <si>
@@ -91,45 +106,138 @@
     <t>OB-D1099</t>
   </si>
   <si>
+    <t>10.109.20.171</t>
+  </si>
+  <si>
+    <t>10.109.20.172</t>
+  </si>
+  <si>
+    <t>10.109.20.173</t>
+  </si>
+  <si>
     <t>OB-D1102</t>
   </si>
   <si>
+    <t>10.109.20.186</t>
+  </si>
+  <si>
+    <t>10.109.20.187</t>
+  </si>
+  <si>
+    <t>10.109.20.188</t>
+  </si>
+  <si>
     <t>OB-D1147</t>
   </si>
   <si>
+    <t>10.109.22.56</t>
+  </si>
+  <si>
+    <t>10.109.22.57</t>
+  </si>
+  <si>
+    <t>10.109.22.58</t>
+  </si>
+  <si>
     <t>OB-D1150</t>
   </si>
   <si>
+    <t>10.109.22.51</t>
+  </si>
+  <si>
+    <t>10.109.22.52</t>
+  </si>
+  <si>
+    <t>10.109.22.53</t>
+  </si>
+  <si>
     <t>Responsible Manager</t>
   </si>
   <si>
+    <t>Zeng, Ke</t>
+  </si>
+  <si>
     <t>OB-D1151</t>
   </si>
   <si>
+    <t>10.109.22.46</t>
+  </si>
+  <si>
+    <t>10.109.22.47</t>
+  </si>
+  <si>
+    <t>10.109.22.48</t>
+  </si>
+  <si>
     <t>Yuan, Jia</t>
   </si>
   <si>
     <t>OB-D1166</t>
   </si>
   <si>
+    <t>10.109.22.146</t>
+  </si>
+  <si>
+    <t>10.109.22.147</t>
+  </si>
+  <si>
+    <t>10.109.22.148</t>
+  </si>
+  <si>
     <t>Lai, Zhencai</t>
   </si>
   <si>
     <t>OB-D1167</t>
   </si>
   <si>
+    <t>10.109.22.141</t>
+  </si>
+  <si>
+    <t>10.109.22.142</t>
+  </si>
+  <si>
+    <t>10.109.22.143</t>
+  </si>
+  <si>
     <t>Zhao, Jingrong</t>
   </si>
   <si>
     <t>OB-D1168</t>
   </si>
   <si>
+    <t>10.109.22.151</t>
+  </si>
+  <si>
+    <t>10.109.22.152</t>
+  </si>
+  <si>
+    <t>10.109.22.153</t>
+  </si>
+  <si>
     <t>OB-D1172</t>
   </si>
   <si>
+    <t>10.109.22.231</t>
+  </si>
+  <si>
+    <t>10.109.22.232</t>
+  </si>
+  <si>
+    <t>10.109.22.233</t>
+  </si>
+  <si>
     <t>OB-D1215</t>
   </si>
   <si>
+    <t>10.109.22.156</t>
+  </si>
+  <si>
+    <t>10.109.22.157</t>
+  </si>
+  <si>
+    <t>10.109.22.158</t>
+  </si>
+  <si>
     <t>Liu, Bonn</t>
   </si>
   <si>
@@ -139,13 +247,91 @@
     <t>OB-D1312</t>
   </si>
   <si>
+    <t>10.109.10.184</t>
+  </si>
+  <si>
+    <t>10.109.10.185</t>
+  </si>
+  <si>
+    <t>10.109.10.186</t>
+  </si>
+  <si>
     <t>OB-D1313</t>
   </si>
   <si>
+    <t>10.109.10.240</t>
+  </si>
+  <si>
+    <t>10.109.10.241</t>
+  </si>
+  <si>
+    <t>10.109.10.242</t>
+  </si>
+  <si>
     <t>OB-D1314</t>
   </si>
   <si>
+    <t>10.109.10.245</t>
+  </si>
+  <si>
+    <t>10.109.10.246</t>
+  </si>
+  <si>
+    <t>10.109.10.247</t>
+  </si>
+  <si>
+    <t>VP-D1038</t>
+  </si>
+  <si>
+    <t>10.109.109.100</t>
+  </si>
+  <si>
+    <t>10.109.109.101</t>
+  </si>
+  <si>
+    <t>10.109.109.102</t>
+  </si>
+  <si>
+    <t>Grosner, George</t>
+  </si>
+  <si>
+    <t>VP-D1057</t>
+  </si>
+  <si>
+    <t>10.109.110.19</t>
+  </si>
+  <si>
+    <t>10.109.110.20</t>
+  </si>
+  <si>
+    <t>10.109.110.21</t>
+  </si>
+  <si>
+    <t>VP-D1063</t>
+  </si>
+  <si>
+    <t>10.109.110.73</t>
+  </si>
+  <si>
+    <t>10.109.110.74</t>
+  </si>
+  <si>
+    <t>10.109.110.75</t>
+  </si>
+  <si>
+    <t>Davalos, Raul</t>
+  </si>
+  <si>
     <t>VX-D1207</t>
+  </si>
+  <si>
+    <t>10.111.81.83</t>
+  </si>
+  <si>
+    <t>10.111.81.84</t>
+  </si>
+  <si>
+    <t>10.111.81.85</t>
   </si>
   <si>
     <t>Physical</t>
@@ -866,31 +1052,208 @@
     <t>VNX2 5401</t>
   </si>
   <si>
+    <t>VNX2 5700</t>
+  </si>
+  <si>
+    <t>Unity 600</t>
+  </si>
+  <si>
+    <t>10.109.20.76</t>
+  </si>
+  <si>
+    <t>10.109.20.77</t>
+  </si>
+  <si>
+    <t>10.109.20.78</t>
+  </si>
+  <si>
     <t>Dai, Cherry</t>
   </si>
   <si>
+    <t>OB-D1101</t>
+  </si>
+  <si>
+    <t>10.109.20.181</t>
+  </si>
+  <si>
+    <t>10.109.20.182</t>
+  </si>
+  <si>
+    <t>10.109.20.183</t>
+  </si>
+  <si>
+    <t>Unity 400</t>
+  </si>
+  <si>
     <t>Tang, Bo</t>
   </si>
   <si>
     <t>OB-D1104</t>
   </si>
   <si>
+    <t>10.109.20.196</t>
+  </si>
+  <si>
+    <t>10.109.20.197</t>
+  </si>
+  <si>
+    <t>10.109.20.198</t>
+  </si>
+  <si>
     <t>OB-D1108</t>
   </si>
   <si>
+    <t>Unity 300</t>
+  </si>
+  <si>
+    <t>10.109.20.216</t>
+  </si>
+  <si>
+    <t>10.109.20.217</t>
+  </si>
+  <si>
+    <t>10.109.20.218</t>
+  </si>
+  <si>
     <t>Zhang, Jennifer</t>
   </si>
   <si>
     <t>OB-D1113</t>
   </si>
   <si>
+    <t>10.109.20.241</t>
+  </si>
+  <si>
+    <t>10.109.20.242</t>
+  </si>
+  <si>
+    <t>10.109.20.243</t>
+  </si>
+  <si>
+    <t>Unity 500</t>
+  </si>
+  <si>
+    <t>OB-D1182</t>
+  </si>
+  <si>
+    <t>10.109.21.171</t>
+  </si>
+  <si>
+    <t>10.109.21.172</t>
+  </si>
+  <si>
+    <t>10.109.21.173</t>
+  </si>
+  <si>
     <t>OB-D1185</t>
   </si>
   <si>
+    <t>10.109.21.186</t>
+  </si>
+  <si>
+    <t>10.109.21.187</t>
+  </si>
+  <si>
+    <t>10.109.21.188</t>
+  </si>
+  <si>
+    <t>OB-D1234</t>
+  </si>
+  <si>
+    <t>10.109.21.236</t>
+  </si>
+  <si>
+    <t>10.109.21.237</t>
+  </si>
+  <si>
+    <t>10.109.21.238</t>
+  </si>
+  <si>
+    <t>OB-D1235</t>
+  </si>
+  <si>
+    <t>10.109.21.231</t>
+  </si>
+  <si>
+    <t>10.109.21.232</t>
+  </si>
+  <si>
+    <t>10.109.21.233</t>
+  </si>
+  <si>
+    <t>OB-D1236</t>
+  </si>
+  <si>
+    <t>10.109.21.226</t>
+  </si>
+  <si>
+    <t>10.109.21.227</t>
+  </si>
+  <si>
+    <t>10.109.21.228</t>
+  </si>
+  <si>
+    <t>OB-D1242</t>
+  </si>
+  <si>
+    <t>10.109.23.6</t>
+  </si>
+  <si>
+    <t>10.109.23.7</t>
+  </si>
+  <si>
+    <t>10.109.23.8</t>
+  </si>
+  <si>
     <t>OB-D1245</t>
   </si>
   <si>
+    <t>10.109.22.246</t>
+  </si>
+  <si>
+    <t>10.109.22.247</t>
+  </si>
+  <si>
+    <t>10.109.22.248</t>
+  </si>
+  <si>
     <t>OB-D1260</t>
+  </si>
+  <si>
+    <t>10.109.23.76</t>
+  </si>
+  <si>
+    <t>10.109.23.77</t>
+  </si>
+  <si>
+    <t>10.109.23.78</t>
+  </si>
+  <si>
+    <t>OB-D1270</t>
+  </si>
+  <si>
+    <t>10.109.23.46</t>
+  </si>
+  <si>
+    <t>10.109.23.47</t>
+  </si>
+  <si>
+    <t>10.109.23.48</t>
+  </si>
+  <si>
+    <t>VP-D1022</t>
+  </si>
+  <si>
+    <t>Virtual_VNX_OEM</t>
+  </si>
+  <si>
+    <t>10.109.108.208</t>
+  </si>
+  <si>
+    <t>10.109.108.209</t>
+  </si>
+  <si>
+    <t>10.109.108.210</t>
   </si>
   <si>
     <t>Version</t>
@@ -1517,6 +1880,27 @@
 root/Password123!
 domain user:
 luser1…luser100/passwd1..passwd100</t>
+  </si>
+  <si>
+    <t>VP-D1056</t>
+  </si>
+  <si>
+    <t>10.109.110.10</t>
+  </si>
+  <si>
+    <t>10.109.110.11</t>
+  </si>
+  <si>
+    <t>10.109.110.12</t>
+  </si>
+  <si>
+    <t>VP-D1065</t>
+  </si>
+  <si>
+    <t>10.109.110.91</t>
+  </si>
+  <si>
+    <t>10.109.110.92</t>
   </si>
   <si>
     <t>10.245.93.48</t>
@@ -1962,7 +2346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,6 +2565,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2498,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2519,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2537,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2545,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2557,43 +2942,950 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="90" customFormat="1">
+      <c r="A5" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>242</v>
+      <c r="G5" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="90" customFormat="1">
+      <c r="A6" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="90" customFormat="1">
+      <c r="A9" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="90" customFormat="1">
+      <c r="A10" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="90" customFormat="1">
+      <c r="A11" s="90" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="90" customFormat="1">
+      <c r="A12" s="90" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="90" customFormat="1">
+      <c r="A14" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="90" customFormat="1">
+      <c r="A16" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="90" customFormat="1">
+      <c r="A18" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="90" customFormat="1">
+      <c r="A21" s="90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="90" customFormat="1">
+      <c r="A22" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="90" customFormat="1">
+      <c r="A27" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H27" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="90" customFormat="1">
+      <c r="A28" s="90" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H28" s="90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D35" t="s">
+        <v>553</v>
+      </c>
+      <c r="E35" t="s">
+        <v>554</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>555</v>
+      </c>
+      <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>556</v>
+      </c>
+      <c r="D38" t="s">
+        <v>557</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A3"/>
+  <autoFilter ref="A1:A32"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="systemDetails::storagesystem=APM00153018781" tooltip="JF-D1012" display="https://hubv1.corp.emc.com/services/equipment_management - systemDetails::storagesystem=APM00153018781"/>
@@ -2624,94 +3916,94 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="149.25" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>346</v>
+        <v>467</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="378">
       <c r="A3" s="61" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>355</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="189">
       <c r="A4" s="61" t="s">
-        <v>343</v>
+        <v>464</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
@@ -2743,260 +4035,260 @@
         <v>5</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="73" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="20" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="75" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="20" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="73" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="20" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="20" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="73" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>251</v>
+        <v>357</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="73" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>252</v>
+        <v>361</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="73" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="73" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3024,13 +4316,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="86" t="s">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3038,55 +4330,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27">
       <c r="A3" s="86" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5">
       <c r="A4" s="86" t="s">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>421</v>
+        <v>542</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>424</v>
+        <v>545</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>421</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="86" t="s">
-        <v>418</v>
+        <v>539</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>423</v>
+        <v>544</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>425</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -3114,2220 +4406,2220 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="46" t="s">
-        <v>253</v>
+        <v>374</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>256</v>
+        <v>377</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>258</v>
+        <v>379</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>263</v>
+        <v>384</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>265</v>
+        <v>386</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="46" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="46" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>271</v>
+        <v>392</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="46" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="46" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="46" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="46" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>275</v>
+        <v>396</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="46" t="s">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="46" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="46" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="18" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="46" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C19" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>222</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="46" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="46" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="46" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="A23" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="46"/>
       <c r="H23" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15">
       <c r="A24" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="46"/>
       <c r="H24" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15">
       <c r="A25" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="46"/>
       <c r="H25" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15">
       <c r="A26" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="46"/>
       <c r="H26" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
       <c r="A27" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="46"/>
       <c r="H27" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15">
       <c r="A28" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>295</v>
+        <v>416</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="46"/>
       <c r="H28" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15">
       <c r="A29" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15">
       <c r="A30" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F31" s="50"/>
       <c r="G31" s="20"/>
       <c r="H31" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="20"/>
       <c r="H32" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15">
       <c r="A33" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="46"/>
       <c r="H33" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15">
       <c r="A34" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="46"/>
       <c r="H34" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15">
       <c r="A35" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="46" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15">
       <c r="A36" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="46"/>
       <c r="H36" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15">
       <c r="A37" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="46"/>
       <c r="H37" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15">
       <c r="A38" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="46"/>
       <c r="H38" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15">
       <c r="A39" s="48" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="46"/>
       <c r="H39" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15">
       <c r="A40" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="46"/>
       <c r="H40" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15">
       <c r="A41" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="46"/>
       <c r="H41" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15">
       <c r="A42" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="46"/>
       <c r="H42" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15">
       <c r="A43" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="46"/>
       <c r="H43" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15">
       <c r="A44" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="46"/>
       <c r="H44" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15">
       <c r="A45" s="48" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>312</v>
+        <v>433</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="46"/>
       <c r="H45" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>314</v>
+        <v>435</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>316</v>
+        <v>437</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>245</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="18" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="18" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="18" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>320</v>
+        <v>441</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="18" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>322</v>
+        <v>443</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="18" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="18" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>324</v>
+        <v>445</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="18" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="18" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="18" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="79" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H62" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C63" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="D63" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H63" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="D64" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H64" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C65" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H65" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B66" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C66" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="D66" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H66" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="D67" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="H67" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E68" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="H68" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C69" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="D69" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E69" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="H69" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="B70" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="D70" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H70" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H71" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>512</v>
       </c>
       <c r="D72" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B73" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="D73" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H73" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B74" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
       <c r="D74" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H74" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="D75" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H75" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B77" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="D78" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H78" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B79" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="D79" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E79" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="H79" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H80" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H81" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C82" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="D82" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H82" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B83" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C83" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H83" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C84" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H84" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C85" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H85" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C86" t="s">
-        <v>401</v>
+        <v>522</v>
       </c>
       <c r="D86" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H86" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H87" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H88" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B89" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C89" t="s">
-        <v>402</v>
+        <v>523</v>
       </c>
       <c r="D89" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H89" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B90" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="H90" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H91" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H92" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H93" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="D94" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H94" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C95" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H95" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B96" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="D96" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H96" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B97" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C97" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="D97" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H97" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B98" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C98" t="s">
-        <v>407</v>
+        <v>528</v>
       </c>
       <c r="D98" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H98" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B99" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C99" t="s">
-        <v>430</v>
+        <v>558</v>
       </c>
       <c r="D99" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H99" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C100" t="s">
-        <v>431</v>
+        <v>559</v>
       </c>
       <c r="D100" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H100" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C101" t="s">
-        <v>432</v>
+        <v>560</v>
       </c>
       <c r="D101" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H101" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C102" t="s">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="D102" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H102" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C103" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="D103" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H103" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="C104" t="s">
-        <v>435</v>
+        <v>563</v>
       </c>
       <c r="D104" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H104" s="79" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -5358,374 +6650,374 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>330</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5765,25 +7057,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54">
@@ -5791,22 +7083,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54">
@@ -5814,22 +7106,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27">
@@ -5837,196 +7129,196 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6056,158 +7348,158 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +7556,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
@@ -6296,7 +7588,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="D2" s="27">
         <v>3</v>
@@ -6308,10 +7600,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -6319,10 +7611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="D3" s="27">
         <v>3</v>
@@ -6334,10 +7626,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -6345,10 +7637,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="D4" s="27">
         <v>3</v>
@@ -6360,10 +7652,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6395,111 +7687,111 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="31" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>427</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="94.5">
       <c r="A3" s="31" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>428</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="54">
       <c r="A5" s="31" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="31" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="31" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="31" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -6507,7 +7799,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="31" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -6515,25 +7807,25 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="31" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>425</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="36" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="D12" s="38"/>
     </row>
@@ -6562,107 +7854,107 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6695,206 +7987,206 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="42" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="42" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="42" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>413</v>
+        <v>534</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="42" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="42" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="42" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="42" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="42" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="42" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="42" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="42" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="42" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="42" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>411</v>
+        <v>532</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="42" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="42" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="42" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="42" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="42" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
